--- a/Jeremy Thesis/Holdout Method Results for TS 5050.xlsx
+++ b/Jeremy Thesis/Holdout Method Results for TS 5050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miste\PycharmProjects\SCAL_USIgnite-911\Jeremy Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E84AF26-729F-4EDB-8F35-461E58D792B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF16E8-1FE3-4F7F-80E9-E1A0FA435361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F6CDAD9-A813-433D-A9D3-B228B9AD42D2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Model</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Forecast Results</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -234,6 +237,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2173110-7185-4ABE-98CE-AA6110CF2599}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,15 +567,17 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -590,7 +596,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +642,11 @@
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -683,8 +692,12 @@
       <c r="O3" s="5">
         <v>21.53461857028973</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="5">
+        <f>2*((M3*L3)/(M3+L3))</f>
+        <v>81.281502684684824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -730,8 +743,12 @@
       <c r="O4" s="5">
         <v>20.581868054131341</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P10" si="0">2*((M4*L4)/(M4+L4))</f>
+        <v>80.033768579877062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -777,8 +794,12 @@
       <c r="O5" s="5">
         <v>27.256355167486667</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="5">
+        <f t="shared" si="0"/>
+        <v>79.175306667323937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -824,8 +845,12 @@
       <c r="O6" s="5">
         <v>26.713057197366741</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="5">
+        <f t="shared" si="0"/>
+        <v>69.208687007891584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -871,8 +896,12 @@
       <c r="O7" s="8">
         <v>20.425488460752941</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>81.278124659600977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -918,8 +947,12 @@
       <c r="O8" s="8">
         <v>21.338394200519762</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>80.002073423406955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -965,8 +998,12 @@
       <c r="O9" s="8">
         <v>21.662437418558401</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>78.410010760462782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1012,13 +1049,17 @@
       <c r="O10" s="8">
         <v>28.017765630338232</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
+        <v>69.603435645142582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,8 +1081,14 @@
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1063,8 +1110,14 @@
       <c r="G15" s="5">
         <v>90.4565385607428</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H15" s="5">
+        <v>3.8961038961038961</v>
+      </c>
+      <c r="I15" s="5">
+        <v>7.7790742901594712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1086,8 +1139,14 @@
       <c r="G16" s="5">
         <v>90.057700843319992</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="5">
+        <v>9.67741935483871</v>
+      </c>
+      <c r="I16" s="5">
+        <v>19.31861630410722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -1109,8 +1168,14 @@
       <c r="G17" s="5">
         <v>86.795418818773797</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5">
+        <v>11.178247734138973</v>
+      </c>
+      <c r="I17" s="5">
+        <v>22.30729810387966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1132,8 +1197,14 @@
       <c r="G18" s="5">
         <v>83.770094692798907</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="5">
+        <v>3.5340314136125657</v>
+      </c>
+      <c r="I18" s="5">
+        <v>7.0627010907949472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -1155,8 +1226,14 @@
       <c r="G19" s="5">
         <v>91.710526315789394</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="5">
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="I19" s="5">
+        <v>10.516036956358446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1178,8 +1255,14 @@
       <c r="G20" s="5">
         <v>91.065900044228201</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="5">
+        <v>8.3900226757369616</v>
+      </c>
+      <c r="I20" s="5">
+        <v>16.750797926522853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1201,8 +1284,14 @@
       <c r="G21" s="5">
         <v>86.137071651090309</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="5">
+        <v>8.5168869309838477</v>
+      </c>
+      <c r="I21" s="5">
+        <v>17.007550766072868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
@@ -1224,8 +1313,14 @@
       <c r="G22" s="8">
         <v>81.248387928810899</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="8">
+        <v>4.4678055190538766</v>
+      </c>
+      <c r="I22" s="8">
+        <v>8.9279852950830438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1247,8 +1342,14 @@
       <c r="G23" s="8">
         <v>89.924545051042998</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I23" s="8">
+        <v>18.365839538458467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -1270,8 +1371,14 @@
       <c r="G24" s="8">
         <v>87.267011003817601</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="8">
+        <v>12.903225806451612</v>
+      </c>
+      <c r="I24" s="8">
+        <v>25.748704901449898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
@@ -1293,8 +1400,14 @@
       <c r="G25" s="8">
         <v>80.885267562210899</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="8">
+        <v>4.1942604856512142</v>
+      </c>
+      <c r="I25" s="8">
+        <v>8.3831542720995387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -1316,8 +1429,14 @@
       <c r="G26" s="8">
         <v>86.447368421052602</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="8">
+        <v>4.6296296296296298</v>
+      </c>
+      <c r="I26" s="8">
+        <v>9.2536899088511557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -1339,8 +1458,14 @@
       <c r="G27" s="8">
         <v>85.404688191065901</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="8">
+        <v>6.7796610169491522</v>
+      </c>
+      <c r="I27" s="8">
+        <v>13.544591334283338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>36</v>
       </c>
@@ -1362,8 +1487,15 @@
       <c r="G28" s="8">
         <v>82.532265242545606</v>
       </c>
+      <c r="H28" s="8">
+        <v>7.1005917159763312</v>
+      </c>
+      <c r="I28" s="8">
+        <v>14.183558891318478</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>